--- a/subscriber_history.xlsx
+++ b/subscriber_history.xlsx
@@ -2,34 +2,31 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ABO" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FAN" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FDP" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NEW" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -43,27 +40,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -76,17 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -458,7 +437,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Pseudo</t>
         </is>
@@ -1247,12 +1226,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Pseudo</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Profil</t>
         </is>
@@ -1305,7 +1284,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1314,12 +1293,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Pseudo</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Profil</t>
         </is>
@@ -1868,720 +1847,765 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>jeanlassalleoff</t>
+          <t>imevesweet</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/jeanlassalleoff</t>
+          <t>https://www.instagram.com/imevesweet</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>jeremyferrarioff</t>
+          <t>jeanlassalleoff</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/jeremyferrarioff</t>
+          <t>https://www.instagram.com/jeanlassalleoff</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>keepcool_lepianmedoc</t>
+          <t>jeremyferrarioff</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/keepcool_lepianmedoc</t>
+          <t>https://www.instagram.com/jeremyferrarioff</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>krl_stream</t>
+          <t>keepcool_lepianmedoc</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/krl_stream</t>
+          <t>https://www.instagram.com/keepcool_lepianmedoc</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>lb_restaurant</t>
+          <t>krl_stream</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/lb_restaurant</t>
+          <t>https://www.instagram.com/krl_stream</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>le_koala_lumpur</t>
+          <t>lb_restaurant</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/le_koala_lumpur</t>
+          <t>https://www.instagram.com/lb_restaurant</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>levraimcfly</t>
+          <t>le_koala_lumpur</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/levraimcfly</t>
+          <t>https://www.instagram.com/le_koala_lumpur</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>lolo.pons.off</t>
+          <t>levraimcfly</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/lolo.pons.off</t>
+          <t>https://www.instagram.com/levraimcfly</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>luckycs2_</t>
+          <t>lolo.pons.off</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/luckycs2_</t>
+          <t>https://www.instagram.com/lolo.pons.off</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>lyssaurora</t>
+          <t>luckycs2_</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/lyssaurora</t>
+          <t>https://www.instagram.com/luckycs2_</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>malek_csgo</t>
+          <t>lyssaurora</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/malek_csgo</t>
+          <t>https://www.instagram.com/lyssaurora</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>marc_sacoche</t>
+          <t>malek_csgo</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/marc_sacoche</t>
+          <t>https://www.instagram.com/malek_csgo</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>marie_milon_3</t>
+          <t>marc_sacoche</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/marie_milon_3</t>
+          <t>https://www.instagram.com/marc_sacoche</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>mateo.lavasele</t>
+          <t>marie_milon_3</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/mateo.lavasele</t>
+          <t>https://www.instagram.com/marie_milon_3</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>mathieu.gzl</t>
+          <t>mateo.lavasele</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/mathieu.gzl</t>
+          <t>https://www.instagram.com/mateo.lavasele</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>matthewencina</t>
+          <t>mathieu.gzl</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/matthewencina</t>
+          <t>https://www.instagram.com/mathieu.gzl</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>mikecoach33</t>
+          <t>matthewencina</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/mikecoach33</t>
+          <t>https://www.instagram.com/matthewencina</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>miniaturwunderland</t>
+          <t>mikecoach33</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/miniaturwunderland</t>
+          <t>https://www.instagram.com/mikecoach33</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>misutaaacsgo</t>
+          <t>miniaturwunderland</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/misutaaacsgo</t>
+          <t>https://www.instagram.com/miniaturwunderland</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>modmusings</t>
+          <t>misutaaacsgo</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/modmusings</t>
+          <t>https://www.instagram.com/misutaaacsgo</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>mybeersbordeaux</t>
+          <t>modmusings</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/mybeersbordeaux</t>
+          <t>https://www.instagram.com/modmusings</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>n1_3d_print</t>
+          <t>mybeersbordeaux</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/n1_3d_print</t>
+          <t>https://www.instagram.com/mybeersbordeaux</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>nasahubble</t>
+          <t>n1_3d_print</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/nasahubble</t>
+          <t>https://www.instagram.com/n1_3d_print</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>nicolux84</t>
+          <t>nasahubble</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/nicolux84</t>
+          <t>https://www.instagram.com/nasahubble</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>nogodi_</t>
+          <t>nicolux84</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/nogodi_</t>
+          <t>https://www.instagram.com/nicolux84</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>nsfofficiel</t>
+          <t>nogodi_</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/nsfofficiel</t>
+          <t>https://www.instagram.com/nogodi_</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>officialbodyy</t>
+          <t>nsfofficiel</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/officialbodyy</t>
+          <t>https://www.instagram.com/nsfofficiel</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>oscarjegou</t>
+          <t>officialbodyy</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/oscarjegou</t>
+          <t>https://www.instagram.com/officialbodyy</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>palmashow_officiel</t>
+          <t>oscarjegou</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/palmashow_officiel</t>
+          <t>https://www.instagram.com/oscarjegou</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>paul_bdhnt</t>
+          <t>palmashow_officiel</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/paul_bdhnt</t>
+          <t>https://www.instagram.com/palmashow_officiel</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>periado_yt</t>
+          <t>paul_bdhnt</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/periado_yt</t>
+          <t>https://www.instagram.com/paul_bdhnt</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>pierre_aries</t>
+          <t>periado_yt</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/pierre_aries</t>
+          <t>https://www.instagram.com/periado_yt</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>prager_paints_minis</t>
+          <t>pierre_aries</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/prager_paints_minis</t>
+          <t>https://www.instagram.com/pierre_aries</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>prodamixem</t>
+          <t>prager_paints_minis</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/prodamixem</t>
+          <t>https://www.instagram.com/prager_paints_minis</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>rafcarlito</t>
+          <t>prodamixem</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/rafcarlito</t>
+          <t>https://www.instagram.com/prodamixem</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>romainlanery</t>
+          <t>rafcarlito</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/romainlanery</t>
+          <t>https://www.instagram.com/rafcarlito</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>rugbydatafr</t>
+          <t>romainlanery</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/rugbydatafr</t>
+          <t>https://www.instagram.com/romainlanery</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>rugbyramafr</t>
+          <t>rugbydatafr</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/rugbyramafr</t>
+          <t>https://www.instagram.com/rugbydatafr</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>rugbyvillages</t>
+          <t>rugbyramafr</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/rugbyvillages</t>
+          <t>https://www.instagram.com/rugbyramafr</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>salutcestjacques</t>
+          <t>rugbyvillages</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/salutcestjacques</t>
+          <t>https://www.instagram.com/rugbyvillages</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>sarah__rgr</t>
+          <t>salutcestjacques</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/sarah__rgr</t>
+          <t>https://www.instagram.com/salutcestjacques</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>scottyujan</t>
+          <t>sarah__rgr</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/scottyujan</t>
+          <t>https://www.instagram.com/sarah__rgr</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>seb.lavergne</t>
+          <t>scottyujan</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/seb.lavergne</t>
+          <t>https://www.instagram.com/scottyujan</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>spinxcs</t>
+          <t>seb.lavergne</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/spinxcs</t>
+          <t>https://www.instagram.com/seb.lavergne</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>staderochelais</t>
+          <t>spinxcs</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/staderochelais</t>
+          <t>https://www.instagram.com/spinxcs</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>staderochelaisnolimit</t>
+          <t>staderochelais</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/staderochelaisnolimit</t>
+          <t>https://www.instagram.com/staderochelais</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>stunningexoticanimalz</t>
+          <t>staderochelaisnolimit</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/stunningexoticanimalz</t>
+          <t>https://www.instagram.com/staderochelaisnolimit</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>teamvitality</t>
+          <t>stunningexoticanimalz</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/teamvitality</t>
+          <t>https://www.instagram.com/stunningexoticanimalz</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>thibautdussac</t>
+          <t>teamvitality</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/thibautdussac</t>
+          <t>https://www.instagram.com/teamvitality</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>thomasdeseur</t>
+          <t>thibautdussac</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/thomasdeseur</t>
+          <t>https://www.instagram.com/thibautdussac</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>tom.developer</t>
+          <t>thomasdeseur</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/tom.developer</t>
+          <t>https://www.instagram.com/thomasdeseur</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ubbespoirs</t>
+          <t>tom.developer</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/ubbespoirs</t>
+          <t>https://www.instagram.com/tom.developer</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ubbrugby</t>
+          <t>ubbespoirs</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/ubbrugby</t>
+          <t>https://www.instagram.com/ubbespoirs</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>uinis_officiel</t>
+          <t>ubbrugby</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/uinis_officiel</t>
+          <t>https://www.instagram.com/ubbrugby</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>usbouscataise</t>
+          <t>uinis_officiel</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/usbouscataise</t>
+          <t>https://www.instagram.com/uinis_officiel</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>vandb_lepianmedoc</t>
+          <t>usbouscataise</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/vandb_lepianmedoc</t>
+          <t>https://www.instagram.com/usbouscataise</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>wairworthy</t>
+          <t>vandb_lepianmedoc</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/wairworthy</t>
+          <t>https://www.instagram.com/vandb_lepianmedoc</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>werbernard</t>
+          <t>wairworthy</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/werbernard</t>
+          <t>https://www.instagram.com/wairworthy</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>wiingi</t>
+          <t>werbernard</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/wiingi</t>
+          <t>https://www.instagram.com/werbernard</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
+          <t>wiingi</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/wiingi</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
           <t>willskel10</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>https://www.instagram.com/willskel10</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Info</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Aucune nouveauté</t>
         </is>
       </c>
     </row>
